--- a/console/Elastic-Compute/Virtual-Machine/computeXlsx/components/computeResize.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/computeXlsx/components/computeResize.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\8月分配\SN205-LF0028-180821-console_Output-译文-ZZH处理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZYYT\Desktop\京东云\_JDC反馈\云主机反馈\Virtual-Machine-En_Output-updated 0830\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -138,9 +138,6 @@
     <t>srart_adjust_config</t>
   </si>
   <si>
-    <t>'Begin to resize'</t>
-  </si>
-  <si>
     <t>vm_adjust_config</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
     <t>adjust_success</t>
   </si>
   <si>
-    <t>'Resize successful</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -522,6 +516,14 @@
       </rPr>
       <t>'</t>
     </r>
+  </si>
+  <si>
+    <t>Resizing successful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Begin resizing'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -576,9 +578,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -920,16 +923,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="42.75" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="169.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="42.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -948,7 +948,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -959,7 +959,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -970,7 +970,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -981,7 +981,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -992,7 +992,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
@@ -1003,7 +1003,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -1014,7 +1014,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -1025,7 +1025,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -1036,7 +1036,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>19</v>
@@ -1047,7 +1047,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>21</v>
@@ -1058,7 +1058,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>23</v>
@@ -1069,7 +1069,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>25</v>
@@ -1080,7 +1080,7 @@
         <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>27</v>
@@ -1091,7 +1091,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>29</v>
@@ -1102,7 +1102,7 @@
         <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>31</v>
@@ -1113,7 +1113,7 @@
         <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>33</v>
@@ -1124,7 +1124,7 @@
         <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>35</v>
@@ -1135,7 +1135,7 @@
         <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>37</v>
@@ -1146,39 +1146,39 @@
         <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C22 A1:A22" numberStoredAsText="1"/>
+    <ignoredError sqref="C1:C19 A1:A22 C21" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>